--- a/Generic_Macro/SavedData/MBCURRCIR.xlsx
+++ b/Generic_Macro/SavedData/MBCURRCIR.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B282"/>
+  <dimension ref="A1:B642"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,2249 +456,5129 @@
     </row>
     <row r="2">
       <c r="A2" s="3" t="n">
-        <v>36526</v>
+        <v>25569</v>
       </c>
       <c r="B2" t="n">
-        <v>589000</v>
+        <v>52800</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="n">
-        <v>36557</v>
+        <v>25600</v>
       </c>
       <c r="B3" t="n">
-        <v>565700</v>
+        <v>52200</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="n">
-        <v>36586</v>
+        <v>25628</v>
       </c>
       <c r="B4" t="n">
-        <v>563700</v>
+        <v>52500</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="3" t="n">
-        <v>36617</v>
+        <v>25659</v>
       </c>
       <c r="B5" t="n">
-        <v>564700</v>
+        <v>52900</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="3" t="n">
-        <v>36647</v>
+        <v>25689</v>
       </c>
       <c r="B6" t="n">
-        <v>566000</v>
+        <v>53600</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="3" t="n">
-        <v>36678</v>
+        <v>25720</v>
       </c>
       <c r="B7" t="n">
-        <v>568600</v>
+        <v>54200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
-        <v>36708</v>
+        <v>25750</v>
       </c>
       <c r="B8" t="n">
-        <v>570800</v>
+        <v>54800</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="3" t="n">
-        <v>36739</v>
+        <v>25781</v>
       </c>
       <c r="B9" t="n">
-        <v>569800</v>
+        <v>54900</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="3" t="n">
-        <v>36770</v>
+        <v>25812</v>
       </c>
       <c r="B10" t="n">
-        <v>570200</v>
+        <v>55000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="3" t="n">
-        <v>36800</v>
+        <v>25842</v>
       </c>
       <c r="B11" t="n">
-        <v>571500</v>
+        <v>55200</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="3" t="n">
-        <v>36831</v>
+        <v>25873</v>
       </c>
       <c r="B12" t="n">
-        <v>575900</v>
+        <v>55900</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="3" t="n">
-        <v>36861</v>
+        <v>25903</v>
       </c>
       <c r="B13" t="n">
-        <v>584300</v>
+        <v>57100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="3" t="n">
-        <v>36892</v>
+        <v>25934</v>
       </c>
       <c r="B14" t="n">
-        <v>584500</v>
+        <v>56300</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="3" t="n">
-        <v>36923</v>
+        <v>25965</v>
       </c>
       <c r="B15" t="n">
-        <v>582400</v>
+        <v>55800</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="3" t="n">
-        <v>36951</v>
+        <v>25993</v>
       </c>
       <c r="B16" t="n">
-        <v>585300</v>
+        <v>56200</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="3" t="n">
-        <v>36982</v>
+        <v>26024</v>
       </c>
       <c r="B17" t="n">
-        <v>588000</v>
+        <v>56800</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="3" t="n">
-        <v>37012</v>
+        <v>26054</v>
       </c>
       <c r="B18" t="n">
-        <v>591400</v>
+        <v>57200</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="3" t="n">
-        <v>37043</v>
+        <v>26085</v>
       </c>
       <c r="B19" t="n">
-        <v>594900</v>
+        <v>58000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="3" t="n">
-        <v>37073</v>
+        <v>26115</v>
       </c>
       <c r="B20" t="n">
-        <v>601100</v>
+        <v>58900</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="3" t="n">
-        <v>37104</v>
+        <v>26146</v>
       </c>
       <c r="B21" t="n">
-        <v>607400</v>
+        <v>59000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="3" t="n">
-        <v>37135</v>
+        <v>26177</v>
       </c>
       <c r="B22" t="n">
-        <v>613100</v>
+        <v>59100</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="3" t="n">
-        <v>37165</v>
+        <v>26207</v>
       </c>
       <c r="B23" t="n">
-        <v>615200</v>
+        <v>59300</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="3" t="n">
-        <v>37196</v>
+        <v>26238</v>
       </c>
       <c r="B24" t="n">
-        <v>622200</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="3" t="n">
-        <v>37226</v>
+        <v>26268</v>
       </c>
       <c r="B25" t="n">
-        <v>632300</v>
+        <v>61100</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="3" t="n">
-        <v>37257</v>
+        <v>26299</v>
       </c>
       <c r="B26" t="n">
-        <v>634600</v>
+        <v>60200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="3" t="n">
-        <v>37288</v>
+        <v>26330</v>
       </c>
       <c r="B27" t="n">
-        <v>636000</v>
+        <v>59700</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="3" t="n">
-        <v>37316</v>
+        <v>26359</v>
       </c>
       <c r="B28" t="n">
-        <v>640200</v>
+        <v>60100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="3" t="n">
-        <v>37347</v>
+        <v>26390</v>
       </c>
       <c r="B29" t="n">
-        <v>643700</v>
+        <v>60700</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="3" t="n">
-        <v>37377</v>
+        <v>26420</v>
       </c>
       <c r="B30" t="n">
-        <v>649500</v>
+        <v>61200</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="3" t="n">
-        <v>37408</v>
+        <v>26451</v>
       </c>
       <c r="B31" t="n">
-        <v>655800</v>
+        <v>61900</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="3" t="n">
-        <v>37438</v>
+        <v>26481</v>
       </c>
       <c r="B32" t="n">
-        <v>661000</v>
+        <v>62700</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="3" t="n">
-        <v>37469</v>
+        <v>26512</v>
       </c>
       <c r="B33" t="n">
-        <v>661100</v>
+        <v>62700</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="3" t="n">
-        <v>37500</v>
+        <v>26543</v>
       </c>
       <c r="B34" t="n">
-        <v>661400</v>
+        <v>62900</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="3" t="n">
-        <v>37530</v>
+        <v>26573</v>
       </c>
       <c r="B35" t="n">
-        <v>662700</v>
+        <v>63400</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="3" t="n">
-        <v>37561</v>
+        <v>26604</v>
       </c>
       <c r="B36" t="n">
-        <v>668200</v>
+        <v>64500</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="3" t="n">
-        <v>37591</v>
+        <v>26634</v>
       </c>
       <c r="B37" t="n">
-        <v>678300</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="3" t="n">
-        <v>37622</v>
+        <v>26665</v>
       </c>
       <c r="B38" t="n">
-        <v>678200</v>
+        <v>65300</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="3" t="n">
-        <v>37653</v>
+        <v>26696</v>
       </c>
       <c r="B39" t="n">
-        <v>680200</v>
+        <v>64600</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="3" t="n">
-        <v>37681</v>
+        <v>26724</v>
       </c>
       <c r="B40" t="n">
-        <v>683900</v>
+        <v>65100</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="3" t="n">
-        <v>37712</v>
+        <v>26755</v>
       </c>
       <c r="B41" t="n">
-        <v>687200</v>
+        <v>66100</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="n">
-        <v>37742</v>
+        <v>26785</v>
       </c>
       <c r="B42" t="n">
-        <v>690700</v>
+        <v>66700</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="3" t="n">
-        <v>37773</v>
+        <v>26816</v>
       </c>
       <c r="B43" t="n">
-        <v>692500</v>
+        <v>67600</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="3" t="n">
-        <v>37803</v>
+        <v>26846</v>
       </c>
       <c r="B44" t="n">
-        <v>694200</v>
+        <v>68400</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="3" t="n">
-        <v>37834</v>
+        <v>26877</v>
       </c>
       <c r="B45" t="n">
-        <v>695500</v>
+        <v>68400</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="3" t="n">
-        <v>37865</v>
+        <v>26908</v>
       </c>
       <c r="B46" t="n">
-        <v>696900</v>
+        <v>68600</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
-        <v>37895</v>
+        <v>26938</v>
       </c>
       <c r="B47" t="n">
-        <v>701700</v>
+        <v>68900</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="3" t="n">
-        <v>37926</v>
+        <v>26969</v>
       </c>
       <c r="B48" t="n">
-        <v>707200</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="3" t="n">
-        <v>37956</v>
+        <v>26999</v>
       </c>
       <c r="B49" t="n">
-        <v>716400</v>
+        <v>71700</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="3" t="n">
-        <v>37987</v>
+        <v>27030</v>
       </c>
       <c r="B50" t="n">
-        <v>713700</v>
+        <v>71000</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="3" t="n">
-        <v>38018</v>
+        <v>27061</v>
       </c>
       <c r="B51" t="n">
-        <v>713500</v>
+        <v>70400</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="3" t="n">
-        <v>38047</v>
+        <v>27089</v>
       </c>
       <c r="B52" t="n">
-        <v>714000</v>
+        <v>71100</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="3" t="n">
-        <v>38078</v>
+        <v>27120</v>
       </c>
       <c r="B53" t="n">
-        <v>716900</v>
+        <v>72200</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="3" t="n">
-        <v>38108</v>
+        <v>27150</v>
       </c>
       <c r="B54" t="n">
-        <v>720800</v>
+        <v>72900</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="3" t="n">
-        <v>38139</v>
+        <v>27181</v>
       </c>
       <c r="B55" t="n">
-        <v>727200</v>
+        <v>73800</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="3" t="n">
-        <v>38169</v>
+        <v>27211</v>
       </c>
       <c r="B56" t="n">
-        <v>734000</v>
+        <v>74600</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="3" t="n">
-        <v>38200</v>
+        <v>27242</v>
       </c>
       <c r="B57" t="n">
-        <v>734700</v>
+        <v>74800</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="3" t="n">
-        <v>38231</v>
+        <v>27273</v>
       </c>
       <c r="B58" t="n">
-        <v>738900</v>
+        <v>75100</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="3" t="n">
-        <v>38261</v>
+        <v>27303</v>
       </c>
       <c r="B59" t="n">
-        <v>741200</v>
+        <v>75700</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="3" t="n">
-        <v>38292</v>
+        <v>27334</v>
       </c>
       <c r="B60" t="n">
-        <v>748100</v>
+        <v>77100</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="3" t="n">
-        <v>38322</v>
+        <v>27364</v>
       </c>
       <c r="B61" t="n">
-        <v>753500</v>
+        <v>79000</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="3" t="n">
-        <v>38353</v>
+        <v>27395</v>
       </c>
       <c r="B62" t="n">
-        <v>749500</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="3" t="n">
-        <v>38384</v>
+        <v>27426</v>
       </c>
       <c r="B63" t="n">
-        <v>751200</v>
+        <v>77000</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="3" t="n">
-        <v>38412</v>
+        <v>27454</v>
       </c>
       <c r="B64" t="n">
-        <v>752200</v>
+        <v>77800</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="3" t="n">
-        <v>38443</v>
+        <v>27485</v>
       </c>
       <c r="B65" t="n">
-        <v>753700</v>
+        <v>78500</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="n">
-        <v>38473</v>
+        <v>27515</v>
       </c>
       <c r="B66" t="n">
-        <v>755500</v>
+        <v>79300</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="3" t="n">
-        <v>38504</v>
+        <v>27546</v>
       </c>
       <c r="B67" t="n">
-        <v>760700</v>
+        <v>80800</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="3" t="n">
-        <v>38534</v>
+        <v>27576</v>
       </c>
       <c r="B68" t="n">
-        <v>763100</v>
+        <v>81800</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="3" t="n">
-        <v>38565</v>
+        <v>27607</v>
       </c>
       <c r="B69" t="n">
-        <v>763300</v>
+        <v>81900</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="3" t="n">
-        <v>38596</v>
+        <v>27638</v>
       </c>
       <c r="B70" t="n">
-        <v>768000</v>
+        <v>82000</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="3" t="n">
-        <v>38626</v>
+        <v>27668</v>
       </c>
       <c r="B71" t="n">
-        <v>768900</v>
+        <v>82400</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="3" t="n">
-        <v>38657</v>
+        <v>27699</v>
       </c>
       <c r="B72" t="n">
-        <v>775200</v>
+        <v>83900</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="3" t="n">
-        <v>38687</v>
+        <v>27729</v>
       </c>
       <c r="B73" t="n">
-        <v>784700</v>
+        <v>85900</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="3" t="n">
-        <v>38718</v>
+        <v>27760</v>
       </c>
       <c r="B74" t="n">
-        <v>784900</v>
+        <v>84800</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="3" t="n">
-        <v>38749</v>
+        <v>27791</v>
       </c>
       <c r="B75" t="n">
-        <v>787000</v>
+        <v>84100</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="3" t="n">
-        <v>38777</v>
+        <v>27820</v>
       </c>
       <c r="B76" t="n">
-        <v>789100</v>
+        <v>85000</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="3" t="n">
-        <v>38808</v>
+        <v>27851</v>
       </c>
       <c r="B77" t="n">
-        <v>790900</v>
+        <v>86500</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="3" t="n">
-        <v>38838</v>
+        <v>27881</v>
       </c>
       <c r="B78" t="n">
-        <v>794300</v>
+        <v>87300</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="3" t="n">
-        <v>38869</v>
+        <v>27912</v>
       </c>
       <c r="B79" t="n">
-        <v>795200</v>
+        <v>88400</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="3" t="n">
-        <v>38899</v>
+        <v>27942</v>
       </c>
       <c r="B80" t="n">
-        <v>794800</v>
+        <v>89300</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="3" t="n">
-        <v>38930</v>
+        <v>27973</v>
       </c>
       <c r="B81" t="n">
-        <v>793900</v>
+        <v>89500</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="3" t="n">
-        <v>38961</v>
+        <v>28004</v>
       </c>
       <c r="B82" t="n">
-        <v>794300</v>
+        <v>89800</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="3" t="n">
-        <v>38991</v>
+        <v>28034</v>
       </c>
       <c r="B83" t="n">
-        <v>794500</v>
+        <v>90200</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="3" t="n">
-        <v>39022</v>
+        <v>28065</v>
       </c>
       <c r="B84" t="n">
-        <v>801400</v>
+        <v>91800</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="3" t="n">
-        <v>39052</v>
+        <v>28095</v>
       </c>
       <c r="B85" t="n">
-        <v>811100</v>
+        <v>93600</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="3" t="n">
-        <v>39083</v>
+        <v>28126</v>
       </c>
       <c r="B86" t="n">
-        <v>807300</v>
+        <v>92500</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="3" t="n">
-        <v>39114</v>
+        <v>28157</v>
       </c>
       <c r="B87" t="n">
-        <v>805400</v>
+        <v>91700</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="3" t="n">
-        <v>39142</v>
+        <v>28185</v>
       </c>
       <c r="B88" t="n">
-        <v>806400</v>
+        <v>92800</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="3" t="n">
-        <v>39173</v>
+        <v>28216</v>
       </c>
       <c r="B89" t="n">
-        <v>807600</v>
+        <v>94200</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="3" t="n">
-        <v>39203</v>
+        <v>28246</v>
       </c>
       <c r="B90" t="n">
-        <v>809800</v>
+        <v>94900</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="3" t="n">
-        <v>39234</v>
+        <v>28277</v>
       </c>
       <c r="B91" t="n">
-        <v>811800</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="3" t="n">
-        <v>39264</v>
+        <v>28307</v>
       </c>
       <c r="B92" t="n">
-        <v>813900</v>
+        <v>97400</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="3" t="n">
-        <v>39295</v>
+        <v>28338</v>
       </c>
       <c r="B93" t="n">
-        <v>811700</v>
+        <v>97700</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="3" t="n">
-        <v>39326</v>
+        <v>28369</v>
       </c>
       <c r="B94" t="n">
-        <v>812000</v>
+        <v>98100</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="3" t="n">
-        <v>39356</v>
+        <v>28399</v>
       </c>
       <c r="B95" t="n">
-        <v>813900</v>
+        <v>98800</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="3" t="n">
-        <v>39387</v>
+        <v>28430</v>
       </c>
       <c r="B96" t="n">
-        <v>819100</v>
+        <v>100600</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="3" t="n">
-        <v>39417</v>
+        <v>28460</v>
       </c>
       <c r="B97" t="n">
-        <v>822300</v>
+        <v>102800</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="3" t="n">
-        <v>39448</v>
+        <v>28491</v>
       </c>
       <c r="B98" t="n">
-        <v>815200</v>
+        <v>102100</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="3" t="n">
-        <v>39479</v>
+        <v>28522</v>
       </c>
       <c r="B99" t="n">
-        <v>814600</v>
+        <v>101100</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="3" t="n">
-        <v>39508</v>
+        <v>28550</v>
       </c>
       <c r="B100" t="n">
-        <v>816400</v>
+        <v>102000</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="3" t="n">
-        <v>39539</v>
+        <v>28581</v>
       </c>
       <c r="B101" t="n">
-        <v>813900</v>
+        <v>103200</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="3" t="n">
-        <v>39569</v>
+        <v>28611</v>
       </c>
       <c r="B102" t="n">
-        <v>818000</v>
+        <v>104300</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="3" t="n">
-        <v>39600</v>
+        <v>28642</v>
       </c>
       <c r="B103" t="n">
-        <v>823500</v>
+        <v>105700</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="3" t="n">
-        <v>39630</v>
+        <v>28672</v>
       </c>
       <c r="B104" t="n">
-        <v>830400</v>
+        <v>107000</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="3" t="n">
-        <v>39661</v>
+        <v>28703</v>
       </c>
       <c r="B105" t="n">
-        <v>831000</v>
+        <v>107200</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="3" t="n">
-        <v>39692</v>
+        <v>28734</v>
       </c>
       <c r="B106" t="n">
-        <v>835100</v>
+        <v>108000</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="3" t="n">
-        <v>39722</v>
+        <v>28764</v>
       </c>
       <c r="B107" t="n">
-        <v>851800</v>
+        <v>108800</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="3" t="n">
-        <v>39753</v>
+        <v>28795</v>
       </c>
       <c r="B108" t="n">
-        <v>865400</v>
+        <v>110900</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="3" t="n">
-        <v>39783</v>
+        <v>28825</v>
       </c>
       <c r="B109" t="n">
-        <v>878300</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="3" t="n">
-        <v>39814</v>
+        <v>28856</v>
       </c>
       <c r="B110" t="n">
-        <v>886600</v>
+        <v>112300</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="3" t="n">
-        <v>39845</v>
+        <v>28887</v>
       </c>
       <c r="B111" t="n">
-        <v>895100</v>
+        <v>111000</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="3" t="n">
-        <v>39873</v>
+        <v>28915</v>
       </c>
       <c r="B112" t="n">
-        <v>901400</v>
+        <v>111900</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="3" t="n">
-        <v>39904</v>
+        <v>28946</v>
       </c>
       <c r="B113" t="n">
-        <v>903600</v>
+        <v>113400</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="3" t="n">
-        <v>39934</v>
+        <v>28976</v>
       </c>
       <c r="B114" t="n">
-        <v>905800</v>
+        <v>114300</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="3" t="n">
-        <v>39965</v>
+        <v>29007</v>
       </c>
       <c r="B115" t="n">
-        <v>907500</v>
+        <v>115900</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="3" t="n">
-        <v>39995</v>
+        <v>29037</v>
       </c>
       <c r="B116" t="n">
-        <v>910000</v>
+        <v>117800</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="3" t="n">
-        <v>40026</v>
+        <v>29068</v>
       </c>
       <c r="B117" t="n">
-        <v>911100</v>
+        <v>118400</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="3" t="n">
-        <v>40057</v>
+        <v>29099</v>
       </c>
       <c r="B118" t="n">
-        <v>913200</v>
+        <v>119300</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="3" t="n">
-        <v>40087</v>
+        <v>29129</v>
       </c>
       <c r="B119" t="n">
-        <v>915100</v>
+        <v>119900</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="3" t="n">
-        <v>40118</v>
+        <v>29160</v>
       </c>
       <c r="B120" t="n">
-        <v>919400</v>
+        <v>121500</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="3" t="n">
-        <v>40148</v>
+        <v>29190</v>
       </c>
       <c r="B121" t="n">
-        <v>924400</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="3" t="n">
-        <v>40179</v>
+        <v>29221</v>
       </c>
       <c r="B122" t="n">
-        <v>921300</v>
+        <v>123100</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="3" t="n">
-        <v>40210</v>
+        <v>29252</v>
       </c>
       <c r="B123" t="n">
-        <v>928600</v>
+        <v>121800</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="3" t="n">
-        <v>40238</v>
+        <v>29281</v>
       </c>
       <c r="B124" t="n">
-        <v>932900</v>
+        <v>122600</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="3" t="n">
-        <v>40269</v>
+        <v>29312</v>
       </c>
       <c r="B125" t="n">
-        <v>935000</v>
+        <v>123800</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="3" t="n">
-        <v>40299</v>
+        <v>29342</v>
       </c>
       <c r="B126" t="n">
-        <v>938500</v>
+        <v>124900</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="3" t="n">
-        <v>40330</v>
+        <v>29373</v>
       </c>
       <c r="B127" t="n">
-        <v>940900</v>
+        <v>126600</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="3" t="n">
-        <v>40360</v>
+        <v>29403</v>
       </c>
       <c r="B128" t="n">
-        <v>944800</v>
+        <v>128400</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="3" t="n">
-        <v>40391</v>
+        <v>29434</v>
       </c>
       <c r="B129" t="n">
-        <v>947000</v>
+        <v>129300</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="3" t="n">
-        <v>40422</v>
+        <v>29465</v>
       </c>
       <c r="B130" t="n">
-        <v>952100</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="3" t="n">
-        <v>40452</v>
+        <v>29495</v>
       </c>
       <c r="B131" t="n">
-        <v>960800</v>
+        <v>130900</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="3" t="n">
-        <v>40483</v>
+        <v>29526</v>
       </c>
       <c r="B132" t="n">
-        <v>973000</v>
+        <v>133100</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="3" t="n">
-        <v>40513</v>
+        <v>29556</v>
       </c>
       <c r="B133" t="n">
-        <v>979700</v>
+        <v>136000</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="3" t="n">
-        <v>40544</v>
+        <v>29587</v>
       </c>
       <c r="B134" t="n">
-        <v>979300</v>
+        <v>133900</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="3" t="n">
-        <v>40575</v>
+        <v>29618</v>
       </c>
       <c r="B135" t="n">
-        <v>990000</v>
+        <v>132300</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="3" t="n">
-        <v>40603</v>
+        <v>29646</v>
       </c>
       <c r="B136" t="n">
-        <v>1001600</v>
+        <v>133000</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="3" t="n">
-        <v>40634</v>
+        <v>29677</v>
       </c>
       <c r="B137" t="n">
-        <v>1009900</v>
+        <v>135000</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="3" t="n">
-        <v>40664</v>
+        <v>29707</v>
       </c>
       <c r="B138" t="n">
-        <v>1018200</v>
+        <v>136200</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="3" t="n">
-        <v>40695</v>
+        <v>29738</v>
       </c>
       <c r="B139" t="n">
-        <v>1023600</v>
+        <v>137300</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="3" t="n">
-        <v>40725</v>
+        <v>29768</v>
       </c>
       <c r="B140" t="n">
-        <v>1029900</v>
+        <v>138900</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="3" t="n">
-        <v>40756</v>
+        <v>29799</v>
       </c>
       <c r="B141" t="n">
-        <v>1034000</v>
+        <v>139100</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="3" t="n">
-        <v>40787</v>
+        <v>29830</v>
       </c>
       <c r="B142" t="n">
-        <v>1038100</v>
+        <v>139100</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="3" t="n">
-        <v>40817</v>
+        <v>29860</v>
       </c>
       <c r="B143" t="n">
-        <v>1042700</v>
+        <v>139200</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="3" t="n">
-        <v>40848</v>
+        <v>29891</v>
       </c>
       <c r="B144" t="n">
-        <v>1056800</v>
+        <v>141200</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="3" t="n">
-        <v>40878</v>
+        <v>29921</v>
       </c>
       <c r="B145" t="n">
-        <v>1067000</v>
+        <v>144400</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="3" t="n">
-        <v>40909</v>
+        <v>29952</v>
       </c>
       <c r="B146" t="n">
-        <v>1069600</v>
+        <v>143000</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="3" t="n">
-        <v>40940</v>
+        <v>29983</v>
       </c>
       <c r="B147" t="n">
-        <v>1082600</v>
+        <v>141400</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="3" t="n">
-        <v>40969</v>
+        <v>30011</v>
       </c>
       <c r="B148" t="n">
-        <v>1095400</v>
+        <v>141800</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="3" t="n">
-        <v>41000</v>
+        <v>30042</v>
       </c>
       <c r="B149" t="n">
-        <v>1100000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="3" t="n">
-        <v>41030</v>
+        <v>30072</v>
       </c>
       <c r="B150" t="n">
-        <v>1104300</v>
+        <v>145700</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="3" t="n">
-        <v>41061</v>
+        <v>30103</v>
       </c>
       <c r="B151" t="n">
-        <v>1109200</v>
+        <v>147400</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="3" t="n">
-        <v>41091</v>
+        <v>30133</v>
       </c>
       <c r="B152" t="n">
-        <v>1113600</v>
+        <v>148900</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="3" t="n">
-        <v>41122</v>
+        <v>30164</v>
       </c>
       <c r="B153" t="n">
-        <v>1117800</v>
+        <v>149300</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="3" t="n">
-        <v>41153</v>
+        <v>30195</v>
       </c>
       <c r="B154" t="n">
-        <v>1126200</v>
+        <v>149700</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="3" t="n">
-        <v>41183</v>
+        <v>30225</v>
       </c>
       <c r="B155" t="n">
-        <v>1135000</v>
+        <v>150400</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="3" t="n">
-        <v>41214</v>
+        <v>30256</v>
       </c>
       <c r="B156" t="n">
-        <v>1149300</v>
+        <v>152500</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="3" t="n">
-        <v>41244</v>
+        <v>30286</v>
       </c>
       <c r="B157" t="n">
-        <v>1158500</v>
+        <v>155500</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="3" t="n">
-        <v>41275</v>
+        <v>30317</v>
       </c>
       <c r="B158" t="n">
-        <v>1159200</v>
+        <v>154000</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="3" t="n">
-        <v>41306</v>
+        <v>30348</v>
       </c>
       <c r="B159" t="n">
-        <v>1165200</v>
+        <v>153000</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="3" t="n">
-        <v>41334</v>
+        <v>30376</v>
       </c>
       <c r="B160" t="n">
-        <v>1174700</v>
+        <v>154600</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="3" t="n">
-        <v>41365</v>
+        <v>30407</v>
       </c>
       <c r="B161" t="n">
-        <v>1178800</v>
+        <v>156800</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="3" t="n">
-        <v>41395</v>
+        <v>30437</v>
       </c>
       <c r="B162" t="n">
-        <v>1186200</v>
+        <v>158700</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="3" t="n">
-        <v>41426</v>
+        <v>30468</v>
       </c>
       <c r="B163" t="n">
-        <v>1190900</v>
+        <v>160700</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="3" t="n">
-        <v>41456</v>
+        <v>30498</v>
       </c>
       <c r="B164" t="n">
-        <v>1196700</v>
+        <v>162300</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="3" t="n">
-        <v>41487</v>
+        <v>30529</v>
       </c>
       <c r="B165" t="n">
-        <v>1199900</v>
+        <v>162600</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="3" t="n">
-        <v>41518</v>
+        <v>30560</v>
       </c>
       <c r="B166" t="n">
-        <v>1205800</v>
+        <v>163500</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="3" t="n">
-        <v>41548</v>
+        <v>30590</v>
       </c>
       <c r="B167" t="n">
-        <v>1214600</v>
+        <v>164400</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="3" t="n">
-        <v>41579</v>
+        <v>30621</v>
       </c>
       <c r="B168" t="n">
-        <v>1221600</v>
+        <v>167100</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="3" t="n">
-        <v>41609</v>
+        <v>30651</v>
       </c>
       <c r="B169" t="n">
-        <v>1232200</v>
+        <v>170200</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="3" t="n">
-        <v>41640</v>
+        <v>30682</v>
       </c>
       <c r="B170" t="n">
-        <v>1230300</v>
+        <v>169000</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="3" t="n">
-        <v>41671</v>
+        <v>30713</v>
       </c>
       <c r="B171" t="n">
-        <v>1239500</v>
+        <v>167200</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="3" t="n">
-        <v>41699</v>
+        <v>30742</v>
       </c>
       <c r="B172" t="n">
-        <v>1262900</v>
+        <v>168400</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="3" t="n">
-        <v>41730</v>
+        <v>30773</v>
       </c>
       <c r="B173" t="n">
-        <v>1270300</v>
+        <v>170400</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="3" t="n">
-        <v>41760</v>
+        <v>30803</v>
       </c>
       <c r="B174" t="n">
-        <v>1276300</v>
+        <v>172000</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="3" t="n">
-        <v>41791</v>
+        <v>30834</v>
       </c>
       <c r="B175" t="n">
-        <v>1280300</v>
+        <v>174300</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="3" t="n">
-        <v>41821</v>
+        <v>30864</v>
       </c>
       <c r="B176" t="n">
-        <v>1285100</v>
+        <v>176200</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="3" t="n">
-        <v>41852</v>
+        <v>30895</v>
       </c>
       <c r="B177" t="n">
-        <v>1288200</v>
+        <v>176200</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="3" t="n">
-        <v>41883</v>
+        <v>30926</v>
       </c>
       <c r="B178" t="n">
-        <v>1289900</v>
+        <v>176500</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="3" t="n">
-        <v>41913</v>
+        <v>30956</v>
       </c>
       <c r="B179" t="n">
-        <v>1295800</v>
+        <v>176600</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="3" t="n">
-        <v>41944</v>
+        <v>30987</v>
       </c>
       <c r="B180" t="n">
-        <v>1310800</v>
+        <v>178600</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="3" t="n">
-        <v>41974</v>
+        <v>31017</v>
       </c>
       <c r="B181" t="n">
-        <v>1327800</v>
+        <v>181800</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="3" t="n">
-        <v>42005</v>
+        <v>31048</v>
       </c>
       <c r="B182" t="n">
-        <v>1333400</v>
+        <v>180000</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="3" t="n">
-        <v>42036</v>
+        <v>31079</v>
       </c>
       <c r="B183" t="n">
-        <v>1343600</v>
+        <v>178300</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="3" t="n">
-        <v>42064</v>
+        <v>31107</v>
       </c>
       <c r="B184" t="n">
-        <v>1355400</v>
+        <v>179200</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="3" t="n">
-        <v>42095</v>
+        <v>31138</v>
       </c>
       <c r="B185" t="n">
-        <v>1360400</v>
+        <v>181000</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="3" t="n">
-        <v>42125</v>
+        <v>31168</v>
       </c>
       <c r="B186" t="n">
-        <v>1365000</v>
+        <v>182900</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="3" t="n">
-        <v>42156</v>
+        <v>31199</v>
       </c>
       <c r="B187" t="n">
-        <v>1366500</v>
+        <v>185500</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="3" t="n">
-        <v>42186</v>
+        <v>31229</v>
       </c>
       <c r="B188" t="n">
-        <v>1370400</v>
+        <v>187400</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="3" t="n">
-        <v>42217</v>
+        <v>31260</v>
       </c>
       <c r="B189" t="n">
-        <v>1375800</v>
+        <v>187900</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="3" t="n">
-        <v>42248</v>
+        <v>31291</v>
       </c>
       <c r="B190" t="n">
-        <v>1384500</v>
+        <v>188500</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="3" t="n">
-        <v>42278</v>
+        <v>31321</v>
       </c>
       <c r="B191" t="n">
-        <v>1392300</v>
+        <v>189000</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="3" t="n">
-        <v>42309</v>
+        <v>31352</v>
       </c>
       <c r="B192" t="n">
-        <v>1404600</v>
+        <v>191400</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="3" t="n">
-        <v>42339</v>
+        <v>31382</v>
       </c>
       <c r="B193" t="n">
-        <v>1416000</v>
+        <v>195200</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="3" t="n">
-        <v>42370</v>
+        <v>31413</v>
       </c>
       <c r="B194" t="n">
-        <v>1416600</v>
+        <v>193300</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="3" t="n">
-        <v>42401</v>
+        <v>31444</v>
       </c>
       <c r="B195" t="n">
-        <v>1423700</v>
+        <v>191300</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="3" t="n">
-        <v>42430</v>
+        <v>31472</v>
       </c>
       <c r="B196" t="n">
-        <v>1438000</v>
+        <v>192500</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="3" t="n">
-        <v>42461</v>
+        <v>31503</v>
       </c>
       <c r="B197" t="n">
-        <v>1445200</v>
+        <v>194400</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="3" t="n">
-        <v>42491</v>
+        <v>31533</v>
       </c>
       <c r="B198" t="n">
-        <v>1452400</v>
+        <v>196400</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="3" t="n">
-        <v>42522</v>
+        <v>31564</v>
       </c>
       <c r="B199" t="n">
-        <v>1458400</v>
+        <v>198700</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="3" t="n">
-        <v>42552</v>
+        <v>31594</v>
       </c>
       <c r="B200" t="n">
-        <v>1462900</v>
+        <v>200800</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="3" t="n">
-        <v>42583</v>
+        <v>31625</v>
       </c>
       <c r="B201" t="n">
-        <v>1464400</v>
+        <v>201200</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="3" t="n">
-        <v>42614</v>
+        <v>31656</v>
       </c>
       <c r="B202" t="n">
-        <v>1470600</v>
+        <v>201500</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="3" t="n">
-        <v>42644</v>
+        <v>31686</v>
       </c>
       <c r="B203" t="n">
-        <v>1477000</v>
+        <v>202200</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="3" t="n">
-        <v>42675</v>
+        <v>31717</v>
       </c>
       <c r="B204" t="n">
-        <v>1489500</v>
+        <v>205100</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="3" t="n">
-        <v>42705</v>
+        <v>31747</v>
       </c>
       <c r="B205" t="n">
-        <v>1500600</v>
+        <v>209100</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="3" t="n">
-        <v>42736</v>
+        <v>31778</v>
       </c>
       <c r="B206" t="n">
-        <v>1502700</v>
+        <v>208000</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="3" t="n">
-        <v>42767</v>
+        <v>31809</v>
       </c>
       <c r="B207" t="n">
-        <v>1508400</v>
+        <v>206500</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="3" t="n">
-        <v>42795</v>
+        <v>31837</v>
       </c>
       <c r="B208" t="n">
-        <v>1530000</v>
+        <v>207400</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="3" t="n">
-        <v>42826</v>
+        <v>31868</v>
       </c>
       <c r="B209" t="n">
-        <v>1540300</v>
+        <v>209600</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="3" t="n">
-        <v>42856</v>
+        <v>31898</v>
       </c>
       <c r="B210" t="n">
-        <v>1548600</v>
+        <v>212000</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="3" t="n">
-        <v>42887</v>
+        <v>31929</v>
       </c>
       <c r="B211" t="n">
-        <v>1556200</v>
+        <v>214400</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="3" t="n">
-        <v>42917</v>
+        <v>31959</v>
       </c>
       <c r="B212" t="n">
-        <v>1562100</v>
+        <v>216400</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="3" t="n">
-        <v>42948</v>
+        <v>31990</v>
       </c>
       <c r="B213" t="n">
-        <v>1566000</v>
+        <v>217000</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="3" t="n">
-        <v>42979</v>
+        <v>32021</v>
       </c>
       <c r="B214" t="n">
-        <v>1578800</v>
+        <v>217600</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="3" t="n">
-        <v>43009</v>
+        <v>32051</v>
       </c>
       <c r="B215" t="n">
-        <v>1584200</v>
+        <v>218800</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="3" t="n">
-        <v>43040</v>
+        <v>32082</v>
       </c>
       <c r="B216" t="n">
-        <v>1593300</v>
+        <v>223000</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="3" t="n">
-        <v>43070</v>
+        <v>32112</v>
       </c>
       <c r="B217" t="n">
-        <v>1606700</v>
+        <v>227200</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="3" t="n">
-        <v>43101</v>
+        <v>32143</v>
       </c>
       <c r="B218" t="n">
-        <v>1610200</v>
+        <v>226500</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="3" t="n">
-        <v>43132</v>
+        <v>32174</v>
       </c>
       <c r="B219" t="n">
-        <v>1616300</v>
+        <v>224400</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="3" t="n">
-        <v>43160</v>
+        <v>32203</v>
       </c>
       <c r="B220" t="n">
-        <v>1633600</v>
+        <v>225500</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="3" t="n">
-        <v>43191</v>
+        <v>32234</v>
       </c>
       <c r="B221" t="n">
-        <v>1640900</v>
+        <v>228200</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="3" t="n">
-        <v>43221</v>
+        <v>32264</v>
       </c>
       <c r="B222" t="n">
-        <v>1652300</v>
+        <v>230500</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="3" t="n">
-        <v>43252</v>
+        <v>32295</v>
       </c>
       <c r="B223" t="n">
-        <v>1662300</v>
+        <v>233500</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="3" t="n">
-        <v>43282</v>
+        <v>32325</v>
       </c>
       <c r="B224" t="n">
-        <v>1668500</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="3" t="n">
-        <v>43313</v>
+        <v>32356</v>
       </c>
       <c r="B225" t="n">
-        <v>1673300</v>
+        <v>236000</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="3" t="n">
-        <v>43344</v>
+        <v>32387</v>
       </c>
       <c r="B226" t="n">
-        <v>1686000</v>
+        <v>236200</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="3" t="n">
-        <v>43374</v>
+        <v>32417</v>
       </c>
       <c r="B227" t="n">
-        <v>1690800</v>
+        <v>237100</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="3" t="n">
-        <v>43405</v>
+        <v>32448</v>
       </c>
       <c r="B228" t="n">
-        <v>1701000</v>
+        <v>240300</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="3" t="n">
-        <v>43435</v>
+        <v>32478</v>
       </c>
       <c r="B229" t="n">
-        <v>1709400</v>
+        <v>244400</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="3" t="n">
-        <v>43466</v>
+        <v>32509</v>
       </c>
       <c r="B230" t="n">
-        <v>1707800</v>
+        <v>243600</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="3" t="n">
-        <v>43497</v>
+        <v>32540</v>
       </c>
       <c r="B231" t="n">
-        <v>1708200</v>
+        <v>240600</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="3" t="n">
-        <v>43525</v>
+        <v>32568</v>
       </c>
       <c r="B232" t="n">
-        <v>1720200</v>
+        <v>242100</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="3" t="n">
-        <v>43556</v>
+        <v>32599</v>
       </c>
       <c r="B233" t="n">
-        <v>1727200</v>
+        <v>243800</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="3" t="n">
-        <v>43586</v>
+        <v>32629</v>
       </c>
       <c r="B234" t="n">
-        <v>1733200</v>
+        <v>245600</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="3" t="n">
-        <v>43617</v>
+        <v>32660</v>
       </c>
       <c r="B235" t="n">
-        <v>1739000</v>
+        <v>248000</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="3" t="n">
-        <v>43647</v>
+        <v>32690</v>
       </c>
       <c r="B236" t="n">
-        <v>1746800</v>
+        <v>249900</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="3" t="n">
-        <v>43678</v>
+        <v>32721</v>
       </c>
       <c r="B237" t="n">
-        <v>1750500</v>
+        <v>249200</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="3" t="n">
-        <v>43709</v>
+        <v>32752</v>
       </c>
       <c r="B238" t="n">
-        <v>1762900</v>
+        <v>248800</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="3" t="n">
-        <v>43739</v>
+        <v>32782</v>
       </c>
       <c r="B239" t="n">
-        <v>1771300</v>
+        <v>249200</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="3" t="n">
-        <v>43770</v>
+        <v>32813</v>
       </c>
       <c r="B240" t="n">
-        <v>1786200</v>
+        <v>251800</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="3" t="n">
-        <v>43800</v>
+        <v>32843</v>
       </c>
       <c r="B241" t="n">
-        <v>1796400</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="3" t="n">
-        <v>43831</v>
+        <v>32874</v>
       </c>
       <c r="B242" t="n">
-        <v>1797200</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="3" t="n">
-        <v>43862</v>
+        <v>32905</v>
       </c>
       <c r="B243" t="n">
-        <v>1797500</v>
+        <v>254700</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="3" t="n">
-        <v>43891</v>
+        <v>32933</v>
       </c>
       <c r="B244" t="n">
-        <v>1838000</v>
+        <v>256800</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="3" t="n">
-        <v>43922</v>
+        <v>32964</v>
       </c>
       <c r="B245" t="n">
-        <v>1891300</v>
+        <v>259900</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="3" t="n">
-        <v>43952</v>
+        <v>32994</v>
       </c>
       <c r="B246" t="n">
-        <v>1931800</v>
+        <v>262400</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="3" t="n">
-        <v>43983</v>
+        <v>33025</v>
       </c>
       <c r="B247" t="n">
-        <v>1958300</v>
+        <v>266000</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="3" t="n">
-        <v>44013</v>
+        <v>33055</v>
       </c>
       <c r="B248" t="n">
-        <v>1981700</v>
+        <v>268900</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="3" t="n">
-        <v>44044</v>
+        <v>33086</v>
       </c>
       <c r="B249" t="n">
-        <v>2007600</v>
+        <v>270600</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="3" t="n">
-        <v>44075</v>
+        <v>33117</v>
       </c>
       <c r="B250" t="n">
-        <v>2027500</v>
+        <v>272700</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="3" t="n">
-        <v>44105</v>
+        <v>33147</v>
       </c>
       <c r="B251" t="n">
-        <v>2040500</v>
+        <v>274600</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="3" t="n">
-        <v>44136</v>
+        <v>33178</v>
       </c>
       <c r="B252" t="n">
-        <v>2058300</v>
+        <v>278300</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="3" t="n">
-        <v>44166</v>
+        <v>33208</v>
       </c>
       <c r="B253" t="n">
-        <v>2071600</v>
+        <v>282900</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="3" t="n">
-        <v>44197</v>
+        <v>33239</v>
       </c>
       <c r="B254" t="n">
-        <v>2094200</v>
+        <v>284600</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="3" t="n">
-        <v>44228</v>
+        <v>33270</v>
       </c>
       <c r="B255" t="n">
-        <v>2100900</v>
+        <v>284300</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="3" t="n">
-        <v>44256</v>
+        <v>33298</v>
       </c>
       <c r="B256" t="n">
-        <v>2117800</v>
+        <v>286400</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="3" t="n">
-        <v>44287</v>
+        <v>33329</v>
       </c>
       <c r="B257" t="n">
-        <v>2154800</v>
+        <v>287500</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="3" t="n">
-        <v>44317</v>
+        <v>33359</v>
       </c>
       <c r="B258" t="n">
-        <v>2169500</v>
+        <v>288800</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="3" t="n">
-        <v>44348</v>
+        <v>33390</v>
       </c>
       <c r="B259" t="n">
-        <v>2179000</v>
+        <v>291200</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="3" t="n">
-        <v>44378</v>
+        <v>33420</v>
       </c>
       <c r="B260" t="n">
-        <v>2186300</v>
+        <v>293400</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="3" t="n">
-        <v>44409</v>
+        <v>33451</v>
       </c>
       <c r="B261" t="n">
-        <v>2188600</v>
+        <v>293900</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="3" t="n">
-        <v>44440</v>
+        <v>33482</v>
       </c>
       <c r="B262" t="n">
-        <v>2195600</v>
+        <v>294600</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="3" t="n">
-        <v>44470</v>
+        <v>33512</v>
       </c>
       <c r="B263" t="n">
-        <v>2202800</v>
+        <v>295800</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="3" t="n">
-        <v>44501</v>
+        <v>33543</v>
       </c>
       <c r="B264" t="n">
-        <v>2214100</v>
+        <v>299100</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="3" t="n">
-        <v>44531</v>
+        <v>33573</v>
       </c>
       <c r="B265" t="n">
-        <v>2225100</v>
+        <v>304500</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="3" t="n">
-        <v>44562</v>
+        <v>33604</v>
       </c>
       <c r="B266" t="n">
-        <v>2232700</v>
+        <v>303300</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="3" t="n">
-        <v>44593</v>
+        <v>33635</v>
       </c>
       <c r="B267" t="n">
-        <v>2235400</v>
+        <v>301700</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="3" t="n">
-        <v>44621</v>
+        <v>33664</v>
       </c>
       <c r="B268" t="n">
-        <v>2259700</v>
+        <v>302800</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="3" t="n">
-        <v>44652</v>
+        <v>33695</v>
       </c>
       <c r="B269" t="n">
-        <v>2269700</v>
+        <v>305500</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="3" t="n">
-        <v>44682</v>
+        <v>33725</v>
       </c>
       <c r="B270" t="n">
-        <v>2273600</v>
+        <v>308100</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="3" t="n">
-        <v>44713</v>
+        <v>33756</v>
       </c>
       <c r="B271" t="n">
-        <v>2278000</v>
+        <v>310500</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="3" t="n">
-        <v>44743</v>
+        <v>33786</v>
       </c>
       <c r="B272" t="n">
-        <v>2278500</v>
+        <v>313500</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="3" t="n">
-        <v>44774</v>
+        <v>33817</v>
       </c>
       <c r="B273" t="n">
-        <v>2276300</v>
+        <v>315800</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="3" t="n">
-        <v>44805</v>
+        <v>33848</v>
       </c>
       <c r="B274" t="n">
-        <v>2279400</v>
+        <v>318500</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="3" t="n">
-        <v>44835</v>
+        <v>33878</v>
       </c>
       <c r="B275" t="n">
-        <v>2283900</v>
+        <v>320400</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="3" t="n">
-        <v>44866</v>
+        <v>33909</v>
       </c>
       <c r="B276" t="n">
-        <v>2292500</v>
+        <v>324400</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="3" t="n">
-        <v>44896</v>
+        <v>33939</v>
       </c>
       <c r="B277" t="n">
-        <v>2298100</v>
+        <v>330500</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="3" t="n">
-        <v>44927</v>
+        <v>33970</v>
       </c>
       <c r="B278" t="n">
-        <v>2298500</v>
+        <v>330300</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="3" t="n">
-        <v>44958</v>
+        <v>34001</v>
       </c>
       <c r="B279" t="n">
-        <v>2299300</v>
+        <v>329500</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="3" t="n">
-        <v>44986</v>
+        <v>34029</v>
       </c>
       <c r="B280" t="n">
-        <v>2312600</v>
+        <v>331600</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="3" t="n">
-        <v>45017</v>
+        <v>34060</v>
       </c>
       <c r="B281" t="n">
-        <v>2323200</v>
+        <v>335400</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="3" t="n">
+        <v>34090</v>
+      </c>
+      <c r="B282" t="n">
+        <v>338600</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="3" t="n">
+        <v>34121</v>
+      </c>
+      <c r="B283" t="n">
+        <v>343000</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="3" t="n">
+        <v>34151</v>
+      </c>
+      <c r="B284" t="n">
+        <v>346200</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="3" t="n">
+        <v>34182</v>
+      </c>
+      <c r="B285" t="n">
+        <v>348200</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="3" t="n">
+        <v>34213</v>
+      </c>
+      <c r="B286" t="n">
+        <v>351100</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="3" t="n">
+        <v>34243</v>
+      </c>
+      <c r="B287" t="n">
+        <v>353300</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="3" t="n">
+        <v>34274</v>
+      </c>
+      <c r="B288" t="n">
+        <v>356600</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="3" t="n">
+        <v>34304</v>
+      </c>
+      <c r="B289" t="n">
+        <v>362400</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="3" t="n">
+        <v>34335</v>
+      </c>
+      <c r="B290" t="n">
+        <v>362900</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="3" t="n">
+        <v>34366</v>
+      </c>
+      <c r="B291" t="n">
+        <v>363800</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="3" t="n">
+        <v>34394</v>
+      </c>
+      <c r="B292" t="n">
+        <v>366800</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="3" t="n">
+        <v>34425</v>
+      </c>
+      <c r="B293" t="n">
+        <v>370900</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="3" t="n">
+        <v>34455</v>
+      </c>
+      <c r="B294" t="n">
+        <v>374200</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="3" t="n">
+        <v>34486</v>
+      </c>
+      <c r="B295" t="n">
+        <v>379100</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="3" t="n">
+        <v>34516</v>
+      </c>
+      <c r="B296" t="n">
+        <v>383100</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="3" t="n">
+        <v>34547</v>
+      </c>
+      <c r="B297" t="n">
+        <v>384300</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="3" t="n">
+        <v>34578</v>
+      </c>
+      <c r="B298" t="n">
+        <v>386600</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="3" t="n">
+        <v>34608</v>
+      </c>
+      <c r="B299" t="n">
+        <v>389000</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="3" t="n">
+        <v>34639</v>
+      </c>
+      <c r="B300" t="n">
+        <v>393600</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" s="3" t="n">
+        <v>34669</v>
+      </c>
+      <c r="B301" t="n">
+        <v>399000</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="3" t="n">
+        <v>34700</v>
+      </c>
+      <c r="B302" t="n">
+        <v>399200</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="3" t="n">
+        <v>34731</v>
+      </c>
+      <c r="B303" t="n">
+        <v>396700</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="3" t="n">
+        <v>34759</v>
+      </c>
+      <c r="B304" t="n">
+        <v>400600</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="3" t="n">
+        <v>34790</v>
+      </c>
+      <c r="B305" t="n">
+        <v>405100</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="3" t="n">
+        <v>34820</v>
+      </c>
+      <c r="B306" t="n">
+        <v>408200</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="3" t="n">
+        <v>34851</v>
+      </c>
+      <c r="B307" t="n">
+        <v>409400</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="3" t="n">
+        <v>34881</v>
+      </c>
+      <c r="B308" t="n">
+        <v>410700</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="3" t="n">
+        <v>34912</v>
+      </c>
+      <c r="B309" t="n">
+        <v>410400</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="3" t="n">
+        <v>34943</v>
+      </c>
+      <c r="B310" t="n">
+        <v>411100</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="3" t="n">
+        <v>34973</v>
+      </c>
+      <c r="B311" t="n">
+        <v>411500</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="3" t="n">
+        <v>35004</v>
+      </c>
+      <c r="B312" t="n">
+        <v>413800</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="3" t="n">
+        <v>35034</v>
+      </c>
+      <c r="B313" t="n">
+        <v>419700</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="3" t="n">
+        <v>35065</v>
+      </c>
+      <c r="B314" t="n">
+        <v>417800</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="3" t="n">
+        <v>35096</v>
+      </c>
+      <c r="B315" t="n">
+        <v>412900</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="3" t="n">
+        <v>35125</v>
+      </c>
+      <c r="B316" t="n">
+        <v>416000</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="3" t="n">
+        <v>35156</v>
+      </c>
+      <c r="B317" t="n">
+        <v>418200</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="3" t="n">
+        <v>35186</v>
+      </c>
+      <c r="B318" t="n">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="3" t="n">
+        <v>35217</v>
+      </c>
+      <c r="B319" t="n">
+        <v>423700</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="3" t="n">
+        <v>35247</v>
+      </c>
+      <c r="B320" t="n">
+        <v>428100</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="3" t="n">
+        <v>35278</v>
+      </c>
+      <c r="B321" t="n">
+        <v>429700</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="3" t="n">
+        <v>35309</v>
+      </c>
+      <c r="B322" t="n">
+        <v>431700</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="3" t="n">
+        <v>35339</v>
+      </c>
+      <c r="B323" t="n">
+        <v>432700</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="3" t="n">
+        <v>35370</v>
+      </c>
+      <c r="B324" t="n">
+        <v>437100</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="3" t="n">
+        <v>35400</v>
+      </c>
+      <c r="B325" t="n">
+        <v>444300</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="3" t="n">
+        <v>35431</v>
+      </c>
+      <c r="B326" t="n">
+        <v>443300</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="3" t="n">
+        <v>35462</v>
+      </c>
+      <c r="B327" t="n">
+        <v>441000</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="3" t="n">
+        <v>35490</v>
+      </c>
+      <c r="B328" t="n">
+        <v>443500</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="3" t="n">
+        <v>35521</v>
+      </c>
+      <c r="B329" t="n">
+        <v>445900</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="3" t="n">
+        <v>35551</v>
+      </c>
+      <c r="B330" t="n">
+        <v>448700</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="3" t="n">
+        <v>35582</v>
+      </c>
+      <c r="B331" t="n">
+        <v>451900</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="3" t="n">
+        <v>35612</v>
+      </c>
+      <c r="B332" t="n">
+        <v>455800</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="3" t="n">
+        <v>35643</v>
+      </c>
+      <c r="B333" t="n">
+        <v>456700</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="3" t="n">
+        <v>35674</v>
+      </c>
+      <c r="B334" t="n">
+        <v>458600</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="3" t="n">
+        <v>35704</v>
+      </c>
+      <c r="B335" t="n">
+        <v>460700</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="3" t="n">
+        <v>35735</v>
+      </c>
+      <c r="B336" t="n">
+        <v>466900</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="3" t="n">
+        <v>35765</v>
+      </c>
+      <c r="B337" t="n">
+        <v>475400</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="3" t="n">
+        <v>35796</v>
+      </c>
+      <c r="B338" t="n">
+        <v>474100</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="3" t="n">
+        <v>35827</v>
+      </c>
+      <c r="B339" t="n">
+        <v>471700</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="3" t="n">
+        <v>35855</v>
+      </c>
+      <c r="B340" t="n">
+        <v>473800</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="3" t="n">
+        <v>35886</v>
+      </c>
+      <c r="B341" t="n">
+        <v>476200</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="3" t="n">
+        <v>35916</v>
+      </c>
+      <c r="B342" t="n">
+        <v>478900</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="3" t="n">
+        <v>35947</v>
+      </c>
+      <c r="B343" t="n">
+        <v>481500</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="3" t="n">
+        <v>35977</v>
+      </c>
+      <c r="B344" t="n">
+        <v>485900</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="3" t="n">
+        <v>36008</v>
+      </c>
+      <c r="B345" t="n">
+        <v>488300</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="3" t="n">
+        <v>36039</v>
+      </c>
+      <c r="B346" t="n">
+        <v>492500</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="3" t="n">
+        <v>36069</v>
+      </c>
+      <c r="B347" t="n">
+        <v>496400</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="3" t="n">
+        <v>36100</v>
+      </c>
+      <c r="B348" t="n">
+        <v>502700</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="3" t="n">
+        <v>36130</v>
+      </c>
+      <c r="B349" t="n">
+        <v>510500</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="3" t="n">
+        <v>36161</v>
+      </c>
+      <c r="B350" t="n">
+        <v>510500</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="3" t="n">
+        <v>36192</v>
+      </c>
+      <c r="B351" t="n">
+        <v>510600</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="3" t="n">
+        <v>36220</v>
+      </c>
+      <c r="B352" t="n">
+        <v>514900</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="3" t="n">
+        <v>36251</v>
+      </c>
+      <c r="B353" t="n">
+        <v>519200</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="3" t="n">
+        <v>36281</v>
+      </c>
+      <c r="B354" t="n">
+        <v>523600</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="3" t="n">
+        <v>36312</v>
+      </c>
+      <c r="B355" t="n">
+        <v>528400</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="3" t="n">
+        <v>36342</v>
+      </c>
+      <c r="B356" t="n">
+        <v>533900</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="3" t="n">
+        <v>36373</v>
+      </c>
+      <c r="B357" t="n">
+        <v>536500</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="3" t="n">
+        <v>36404</v>
+      </c>
+      <c r="B358" t="n">
+        <v>542100</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="3" t="n">
+        <v>36434</v>
+      </c>
+      <c r="B359" t="n">
+        <v>551000</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="3" t="n">
+        <v>36465</v>
+      </c>
+      <c r="B360" t="n">
+        <v>569500</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="3" t="n">
+        <v>36495</v>
+      </c>
+      <c r="B361" t="n">
+        <v>599900</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="3" t="n">
+        <v>36526</v>
+      </c>
+      <c r="B362" t="n">
+        <v>589000</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="3" t="n">
+        <v>36557</v>
+      </c>
+      <c r="B363" t="n">
+        <v>565700</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="3" t="n">
+        <v>36586</v>
+      </c>
+      <c r="B364" t="n">
+        <v>563700</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="3" t="n">
+        <v>36617</v>
+      </c>
+      <c r="B365" t="n">
+        <v>564700</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" s="3" t="n">
+        <v>36647</v>
+      </c>
+      <c r="B366" t="n">
+        <v>566000</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="3" t="n">
+        <v>36678</v>
+      </c>
+      <c r="B367" t="n">
+        <v>568600</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="3" t="n">
+        <v>36708</v>
+      </c>
+      <c r="B368" t="n">
+        <v>570800</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="3" t="n">
+        <v>36739</v>
+      </c>
+      <c r="B369" t="n">
+        <v>569800</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="3" t="n">
+        <v>36770</v>
+      </c>
+      <c r="B370" t="n">
+        <v>570200</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="3" t="n">
+        <v>36800</v>
+      </c>
+      <c r="B371" t="n">
+        <v>571500</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="3" t="n">
+        <v>36831</v>
+      </c>
+      <c r="B372" t="n">
+        <v>575900</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="3" t="n">
+        <v>36861</v>
+      </c>
+      <c r="B373" t="n">
+        <v>584300</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="3" t="n">
+        <v>36892</v>
+      </c>
+      <c r="B374" t="n">
+        <v>584500</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="3" t="n">
+        <v>36923</v>
+      </c>
+      <c r="B375" t="n">
+        <v>582400</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="3" t="n">
+        <v>36951</v>
+      </c>
+      <c r="B376" t="n">
+        <v>585300</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="3" t="n">
+        <v>36982</v>
+      </c>
+      <c r="B377" t="n">
+        <v>588000</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="3" t="n">
+        <v>37012</v>
+      </c>
+      <c r="B378" t="n">
+        <v>591400</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="3" t="n">
+        <v>37043</v>
+      </c>
+      <c r="B379" t="n">
+        <v>594900</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="3" t="n">
+        <v>37073</v>
+      </c>
+      <c r="B380" t="n">
+        <v>601100</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="3" t="n">
+        <v>37104</v>
+      </c>
+      <c r="B381" t="n">
+        <v>607400</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="3" t="n">
+        <v>37135</v>
+      </c>
+      <c r="B382" t="n">
+        <v>613100</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="3" t="n">
+        <v>37165</v>
+      </c>
+      <c r="B383" t="n">
+        <v>615200</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="3" t="n">
+        <v>37196</v>
+      </c>
+      <c r="B384" t="n">
+        <v>622200</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="3" t="n">
+        <v>37226</v>
+      </c>
+      <c r="B385" t="n">
+        <v>632300</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="3" t="n">
+        <v>37257</v>
+      </c>
+      <c r="B386" t="n">
+        <v>634600</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="3" t="n">
+        <v>37288</v>
+      </c>
+      <c r="B387" t="n">
+        <v>636000</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="3" t="n">
+        <v>37316</v>
+      </c>
+      <c r="B388" t="n">
+        <v>640200</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="3" t="n">
+        <v>37347</v>
+      </c>
+      <c r="B389" t="n">
+        <v>643700</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="3" t="n">
+        <v>37377</v>
+      </c>
+      <c r="B390" t="n">
+        <v>649500</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="3" t="n">
+        <v>37408</v>
+      </c>
+      <c r="B391" t="n">
+        <v>655800</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="3" t="n">
+        <v>37438</v>
+      </c>
+      <c r="B392" t="n">
+        <v>661000</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="3" t="n">
+        <v>37469</v>
+      </c>
+      <c r="B393" t="n">
+        <v>661100</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="3" t="n">
+        <v>37500</v>
+      </c>
+      <c r="B394" t="n">
+        <v>661400</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="3" t="n">
+        <v>37530</v>
+      </c>
+      <c r="B395" t="n">
+        <v>662700</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="3" t="n">
+        <v>37561</v>
+      </c>
+      <c r="B396" t="n">
+        <v>668200</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="3" t="n">
+        <v>37591</v>
+      </c>
+      <c r="B397" t="n">
+        <v>678300</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="3" t="n">
+        <v>37622</v>
+      </c>
+      <c r="B398" t="n">
+        <v>678200</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="3" t="n">
+        <v>37653</v>
+      </c>
+      <c r="B399" t="n">
+        <v>680200</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="3" t="n">
+        <v>37681</v>
+      </c>
+      <c r="B400" t="n">
+        <v>683900</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="3" t="n">
+        <v>37712</v>
+      </c>
+      <c r="B401" t="n">
+        <v>687200</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="3" t="n">
+        <v>37742</v>
+      </c>
+      <c r="B402" t="n">
+        <v>690700</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="3" t="n">
+        <v>37773</v>
+      </c>
+      <c r="B403" t="n">
+        <v>692500</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="3" t="n">
+        <v>37803</v>
+      </c>
+      <c r="B404" t="n">
+        <v>694200</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="3" t="n">
+        <v>37834</v>
+      </c>
+      <c r="B405" t="n">
+        <v>695500</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="3" t="n">
+        <v>37865</v>
+      </c>
+      <c r="B406" t="n">
+        <v>696900</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="3" t="n">
+        <v>37895</v>
+      </c>
+      <c r="B407" t="n">
+        <v>701700</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="3" t="n">
+        <v>37926</v>
+      </c>
+      <c r="B408" t="n">
+        <v>707200</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="3" t="n">
+        <v>37956</v>
+      </c>
+      <c r="B409" t="n">
+        <v>716400</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="3" t="n">
+        <v>37987</v>
+      </c>
+      <c r="B410" t="n">
+        <v>713700</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="3" t="n">
+        <v>38018</v>
+      </c>
+      <c r="B411" t="n">
+        <v>713500</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="3" t="n">
+        <v>38047</v>
+      </c>
+      <c r="B412" t="n">
+        <v>714000</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="3" t="n">
+        <v>38078</v>
+      </c>
+      <c r="B413" t="n">
+        <v>716900</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="3" t="n">
+        <v>38108</v>
+      </c>
+      <c r="B414" t="n">
+        <v>720800</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="3" t="n">
+        <v>38139</v>
+      </c>
+      <c r="B415" t="n">
+        <v>727200</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="3" t="n">
+        <v>38169</v>
+      </c>
+      <c r="B416" t="n">
+        <v>734000</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="3" t="n">
+        <v>38200</v>
+      </c>
+      <c r="B417" t="n">
+        <v>734700</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="3" t="n">
+        <v>38231</v>
+      </c>
+      <c r="B418" t="n">
+        <v>738900</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="3" t="n">
+        <v>38261</v>
+      </c>
+      <c r="B419" t="n">
+        <v>741200</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="3" t="n">
+        <v>38292</v>
+      </c>
+      <c r="B420" t="n">
+        <v>748100</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="3" t="n">
+        <v>38322</v>
+      </c>
+      <c r="B421" t="n">
+        <v>753500</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="3" t="n">
+        <v>38353</v>
+      </c>
+      <c r="B422" t="n">
+        <v>749500</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="3" t="n">
+        <v>38384</v>
+      </c>
+      <c r="B423" t="n">
+        <v>751200</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="3" t="n">
+        <v>38412</v>
+      </c>
+      <c r="B424" t="n">
+        <v>752200</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" s="3" t="n">
+        <v>38443</v>
+      </c>
+      <c r="B425" t="n">
+        <v>753700</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="3" t="n">
+        <v>38473</v>
+      </c>
+      <c r="B426" t="n">
+        <v>755500</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="3" t="n">
+        <v>38504</v>
+      </c>
+      <c r="B427" t="n">
+        <v>760700</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="3" t="n">
+        <v>38534</v>
+      </c>
+      <c r="B428" t="n">
+        <v>763100</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="3" t="n">
+        <v>38565</v>
+      </c>
+      <c r="B429" t="n">
+        <v>763300</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="3" t="n">
+        <v>38596</v>
+      </c>
+      <c r="B430" t="n">
+        <v>768000</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="3" t="n">
+        <v>38626</v>
+      </c>
+      <c r="B431" t="n">
+        <v>768900</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="3" t="n">
+        <v>38657</v>
+      </c>
+      <c r="B432" t="n">
+        <v>775200</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="3" t="n">
+        <v>38687</v>
+      </c>
+      <c r="B433" t="n">
+        <v>784700</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="3" t="n">
+        <v>38718</v>
+      </c>
+      <c r="B434" t="n">
+        <v>784900</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="3" t="n">
+        <v>38749</v>
+      </c>
+      <c r="B435" t="n">
+        <v>787000</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="3" t="n">
+        <v>38777</v>
+      </c>
+      <c r="B436" t="n">
+        <v>789100</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="3" t="n">
+        <v>38808</v>
+      </c>
+      <c r="B437" t="n">
+        <v>790900</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="3" t="n">
+        <v>38838</v>
+      </c>
+      <c r="B438" t="n">
+        <v>794300</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="3" t="n">
+        <v>38869</v>
+      </c>
+      <c r="B439" t="n">
+        <v>795200</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="3" t="n">
+        <v>38899</v>
+      </c>
+      <c r="B440" t="n">
+        <v>794800</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="3" t="n">
+        <v>38930</v>
+      </c>
+      <c r="B441" t="n">
+        <v>793900</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="3" t="n">
+        <v>38961</v>
+      </c>
+      <c r="B442" t="n">
+        <v>794300</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="3" t="n">
+        <v>38991</v>
+      </c>
+      <c r="B443" t="n">
+        <v>794500</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="3" t="n">
+        <v>39022</v>
+      </c>
+      <c r="B444" t="n">
+        <v>801400</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="3" t="n">
+        <v>39052</v>
+      </c>
+      <c r="B445" t="n">
+        <v>811100</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="3" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B446" t="n">
+        <v>807300</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="3" t="n">
+        <v>39114</v>
+      </c>
+      <c r="B447" t="n">
+        <v>805400</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="3" t="n">
+        <v>39142</v>
+      </c>
+      <c r="B448" t="n">
+        <v>806400</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="3" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B449" t="n">
+        <v>807600</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="3" t="n">
+        <v>39203</v>
+      </c>
+      <c r="B450" t="n">
+        <v>809800</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="3" t="n">
+        <v>39234</v>
+      </c>
+      <c r="B451" t="n">
+        <v>811800</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="3" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B452" t="n">
+        <v>813900</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="3" t="n">
+        <v>39295</v>
+      </c>
+      <c r="B453" t="n">
+        <v>811700</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="3" t="n">
+        <v>39326</v>
+      </c>
+      <c r="B454" t="n">
+        <v>812000</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="3" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B455" t="n">
+        <v>813900</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="3" t="n">
+        <v>39387</v>
+      </c>
+      <c r="B456" t="n">
+        <v>819100</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="3" t="n">
+        <v>39417</v>
+      </c>
+      <c r="B457" t="n">
+        <v>822300</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="3" t="n">
+        <v>39448</v>
+      </c>
+      <c r="B458" t="n">
+        <v>815200</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="3" t="n">
+        <v>39479</v>
+      </c>
+      <c r="B459" t="n">
+        <v>814600</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="3" t="n">
+        <v>39508</v>
+      </c>
+      <c r="B460" t="n">
+        <v>816400</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="3" t="n">
+        <v>39539</v>
+      </c>
+      <c r="B461" t="n">
+        <v>813900</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="3" t="n">
+        <v>39569</v>
+      </c>
+      <c r="B462" t="n">
+        <v>818000</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="3" t="n">
+        <v>39600</v>
+      </c>
+      <c r="B463" t="n">
+        <v>823500</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="3" t="n">
+        <v>39630</v>
+      </c>
+      <c r="B464" t="n">
+        <v>830400</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="3" t="n">
+        <v>39661</v>
+      </c>
+      <c r="B465" t="n">
+        <v>831000</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="3" t="n">
+        <v>39692</v>
+      </c>
+      <c r="B466" t="n">
+        <v>835100</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="3" t="n">
+        <v>39722</v>
+      </c>
+      <c r="B467" t="n">
+        <v>851800</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="3" t="n">
+        <v>39753</v>
+      </c>
+      <c r="B468" t="n">
+        <v>865400</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" s="3" t="n">
+        <v>39783</v>
+      </c>
+      <c r="B469" t="n">
+        <v>878300</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="3" t="n">
+        <v>39814</v>
+      </c>
+      <c r="B470" t="n">
+        <v>886600</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="3" t="n">
+        <v>39845</v>
+      </c>
+      <c r="B471" t="n">
+        <v>895100</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="3" t="n">
+        <v>39873</v>
+      </c>
+      <c r="B472" t="n">
+        <v>901400</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="3" t="n">
+        <v>39904</v>
+      </c>
+      <c r="B473" t="n">
+        <v>903600</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="3" t="n">
+        <v>39934</v>
+      </c>
+      <c r="B474" t="n">
+        <v>905800</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="3" t="n">
+        <v>39965</v>
+      </c>
+      <c r="B475" t="n">
+        <v>907500</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="3" t="n">
+        <v>39995</v>
+      </c>
+      <c r="B476" t="n">
+        <v>910000</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="3" t="n">
+        <v>40026</v>
+      </c>
+      <c r="B477" t="n">
+        <v>911100</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="3" t="n">
+        <v>40057</v>
+      </c>
+      <c r="B478" t="n">
+        <v>913200</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="3" t="n">
+        <v>40087</v>
+      </c>
+      <c r="B479" t="n">
+        <v>915100</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="3" t="n">
+        <v>40118</v>
+      </c>
+      <c r="B480" t="n">
+        <v>919400</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="3" t="n">
+        <v>40148</v>
+      </c>
+      <c r="B481" t="n">
+        <v>924400</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="3" t="n">
+        <v>40179</v>
+      </c>
+      <c r="B482" t="n">
+        <v>921300</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="3" t="n">
+        <v>40210</v>
+      </c>
+      <c r="B483" t="n">
+        <v>928600</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="3" t="n">
+        <v>40238</v>
+      </c>
+      <c r="B484" t="n">
+        <v>932900</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="3" t="n">
+        <v>40269</v>
+      </c>
+      <c r="B485" t="n">
+        <v>935000</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="3" t="n">
+        <v>40299</v>
+      </c>
+      <c r="B486" t="n">
+        <v>938500</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="3" t="n">
+        <v>40330</v>
+      </c>
+      <c r="B487" t="n">
+        <v>940900</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="3" t="n">
+        <v>40360</v>
+      </c>
+      <c r="B488" t="n">
+        <v>944800</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="3" t="n">
+        <v>40391</v>
+      </c>
+      <c r="B489" t="n">
+        <v>947000</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="3" t="n">
+        <v>40422</v>
+      </c>
+      <c r="B490" t="n">
+        <v>952100</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="3" t="n">
+        <v>40452</v>
+      </c>
+      <c r="B491" t="n">
+        <v>960800</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="3" t="n">
+        <v>40483</v>
+      </c>
+      <c r="B492" t="n">
+        <v>973000</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="3" t="n">
+        <v>40513</v>
+      </c>
+      <c r="B493" t="n">
+        <v>979700</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="3" t="n">
+        <v>40544</v>
+      </c>
+      <c r="B494" t="n">
+        <v>979300</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="3" t="n">
+        <v>40575</v>
+      </c>
+      <c r="B495" t="n">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="3" t="n">
+        <v>40603</v>
+      </c>
+      <c r="B496" t="n">
+        <v>1001600</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="3" t="n">
+        <v>40634</v>
+      </c>
+      <c r="B497" t="n">
+        <v>1009900</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="3" t="n">
+        <v>40664</v>
+      </c>
+      <c r="B498" t="n">
+        <v>1018200</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="3" t="n">
+        <v>40695</v>
+      </c>
+      <c r="B499" t="n">
+        <v>1023600</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="3" t="n">
+        <v>40725</v>
+      </c>
+      <c r="B500" t="n">
+        <v>1029900</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="3" t="n">
+        <v>40756</v>
+      </c>
+      <c r="B501" t="n">
+        <v>1034000</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="3" t="n">
+        <v>40787</v>
+      </c>
+      <c r="B502" t="n">
+        <v>1038100</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="3" t="n">
+        <v>40817</v>
+      </c>
+      <c r="B503" t="n">
+        <v>1042700</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="3" t="n">
+        <v>40848</v>
+      </c>
+      <c r="B504" t="n">
+        <v>1056800</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="3" t="n">
+        <v>40878</v>
+      </c>
+      <c r="B505" t="n">
+        <v>1067000</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="3" t="n">
+        <v>40909</v>
+      </c>
+      <c r="B506" t="n">
+        <v>1069600</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="3" t="n">
+        <v>40940</v>
+      </c>
+      <c r="B507" t="n">
+        <v>1082600</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="3" t="n">
+        <v>40969</v>
+      </c>
+      <c r="B508" t="n">
+        <v>1095400</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="3" t="n">
+        <v>41000</v>
+      </c>
+      <c r="B509" t="n">
+        <v>1100000</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="3" t="n">
+        <v>41030</v>
+      </c>
+      <c r="B510" t="n">
+        <v>1104300</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="3" t="n">
+        <v>41061</v>
+      </c>
+      <c r="B511" t="n">
+        <v>1109200</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="3" t="n">
+        <v>41091</v>
+      </c>
+      <c r="B512" t="n">
+        <v>1113600</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="3" t="n">
+        <v>41122</v>
+      </c>
+      <c r="B513" t="n">
+        <v>1117800</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="3" t="n">
+        <v>41153</v>
+      </c>
+      <c r="B514" t="n">
+        <v>1126200</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="3" t="n">
+        <v>41183</v>
+      </c>
+      <c r="B515" t="n">
+        <v>1135000</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="3" t="n">
+        <v>41214</v>
+      </c>
+      <c r="B516" t="n">
+        <v>1149300</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="3" t="n">
+        <v>41244</v>
+      </c>
+      <c r="B517" t="n">
+        <v>1158500</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="3" t="n">
+        <v>41275</v>
+      </c>
+      <c r="B518" t="n">
+        <v>1159200</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="3" t="n">
+        <v>41306</v>
+      </c>
+      <c r="B519" t="n">
+        <v>1165200</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="3" t="n">
+        <v>41334</v>
+      </c>
+      <c r="B520" t="n">
+        <v>1174700</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="3" t="n">
+        <v>41365</v>
+      </c>
+      <c r="B521" t="n">
+        <v>1178800</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="3" t="n">
+        <v>41395</v>
+      </c>
+      <c r="B522" t="n">
+        <v>1186200</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="3" t="n">
+        <v>41426</v>
+      </c>
+      <c r="B523" t="n">
+        <v>1190900</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="3" t="n">
+        <v>41456</v>
+      </c>
+      <c r="B524" t="n">
+        <v>1196700</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="3" t="n">
+        <v>41487</v>
+      </c>
+      <c r="B525" t="n">
+        <v>1199900</v>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" s="3" t="n">
+        <v>41518</v>
+      </c>
+      <c r="B526" t="n">
+        <v>1205800</v>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" s="3" t="n">
+        <v>41548</v>
+      </c>
+      <c r="B527" t="n">
+        <v>1214600</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="3" t="n">
+        <v>41579</v>
+      </c>
+      <c r="B528" t="n">
+        <v>1221600</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="3" t="n">
+        <v>41609</v>
+      </c>
+      <c r="B529" t="n">
+        <v>1232200</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="3" t="n">
+        <v>41640</v>
+      </c>
+      <c r="B530" t="n">
+        <v>1230300</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="3" t="n">
+        <v>41671</v>
+      </c>
+      <c r="B531" t="n">
+        <v>1239500</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="3" t="n">
+        <v>41699</v>
+      </c>
+      <c r="B532" t="n">
+        <v>1262900</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="3" t="n">
+        <v>41730</v>
+      </c>
+      <c r="B533" t="n">
+        <v>1270300</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="3" t="n">
+        <v>41760</v>
+      </c>
+      <c r="B534" t="n">
+        <v>1276300</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="3" t="n">
+        <v>41791</v>
+      </c>
+      <c r="B535" t="n">
+        <v>1280300</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="3" t="n">
+        <v>41821</v>
+      </c>
+      <c r="B536" t="n">
+        <v>1285100</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="3" t="n">
+        <v>41852</v>
+      </c>
+      <c r="B537" t="n">
+        <v>1288200</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="3" t="n">
+        <v>41883</v>
+      </c>
+      <c r="B538" t="n">
+        <v>1289900</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="3" t="n">
+        <v>41913</v>
+      </c>
+      <c r="B539" t="n">
+        <v>1295800</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="3" t="n">
+        <v>41944</v>
+      </c>
+      <c r="B540" t="n">
+        <v>1310800</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="3" t="n">
+        <v>41974</v>
+      </c>
+      <c r="B541" t="n">
+        <v>1327800</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="3" t="n">
+        <v>42005</v>
+      </c>
+      <c r="B542" t="n">
+        <v>1333400</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="3" t="n">
+        <v>42036</v>
+      </c>
+      <c r="B543" t="n">
+        <v>1343600</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="3" t="n">
+        <v>42064</v>
+      </c>
+      <c r="B544" t="n">
+        <v>1355400</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="3" t="n">
+        <v>42095</v>
+      </c>
+      <c r="B545" t="n">
+        <v>1360400</v>
+      </c>
+    </row>
+    <row r="546">
+      <c r="A546" s="3" t="n">
+        <v>42125</v>
+      </c>
+      <c r="B546" t="n">
+        <v>1365000</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="3" t="n">
+        <v>42156</v>
+      </c>
+      <c r="B547" t="n">
+        <v>1366500</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="3" t="n">
+        <v>42186</v>
+      </c>
+      <c r="B548" t="n">
+        <v>1370400</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="3" t="n">
+        <v>42217</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1375800</v>
+      </c>
+    </row>
+    <row r="550">
+      <c r="A550" s="3" t="n">
+        <v>42248</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1384500</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="3" t="n">
+        <v>42278</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1392300</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="3" t="n">
+        <v>42309</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1404600</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="3" t="n">
+        <v>42339</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1416000</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="3" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B554" t="n">
+        <v>1416600</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="3" t="n">
+        <v>42401</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1423700</v>
+      </c>
+    </row>
+    <row r="556">
+      <c r="A556" s="3" t="n">
+        <v>42430</v>
+      </c>
+      <c r="B556" t="n">
+        <v>1438000</v>
+      </c>
+    </row>
+    <row r="557">
+      <c r="A557" s="3" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B557" t="n">
+        <v>1445200</v>
+      </c>
+    </row>
+    <row r="558">
+      <c r="A558" s="3" t="n">
+        <v>42491</v>
+      </c>
+      <c r="B558" t="n">
+        <v>1452400</v>
+      </c>
+    </row>
+    <row r="559">
+      <c r="A559" s="3" t="n">
+        <v>42522</v>
+      </c>
+      <c r="B559" t="n">
+        <v>1458400</v>
+      </c>
+    </row>
+    <row r="560">
+      <c r="A560" s="3" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B560" t="n">
+        <v>1462900</v>
+      </c>
+    </row>
+    <row r="561">
+      <c r="A561" s="3" t="n">
+        <v>42583</v>
+      </c>
+      <c r="B561" t="n">
+        <v>1464400</v>
+      </c>
+    </row>
+    <row r="562">
+      <c r="A562" s="3" t="n">
+        <v>42614</v>
+      </c>
+      <c r="B562" t="n">
+        <v>1470600</v>
+      </c>
+    </row>
+    <row r="563">
+      <c r="A563" s="3" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B563" t="n">
+        <v>1477000</v>
+      </c>
+    </row>
+    <row r="564">
+      <c r="A564" s="3" t="n">
+        <v>42675</v>
+      </c>
+      <c r="B564" t="n">
+        <v>1489500</v>
+      </c>
+    </row>
+    <row r="565">
+      <c r="A565" s="3" t="n">
+        <v>42705</v>
+      </c>
+      <c r="B565" t="n">
+        <v>1500600</v>
+      </c>
+    </row>
+    <row r="566">
+      <c r="A566" s="3" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B566" t="n">
+        <v>1502700</v>
+      </c>
+    </row>
+    <row r="567">
+      <c r="A567" s="3" t="n">
+        <v>42767</v>
+      </c>
+      <c r="B567" t="n">
+        <v>1508400</v>
+      </c>
+    </row>
+    <row r="568">
+      <c r="A568" s="3" t="n">
+        <v>42795</v>
+      </c>
+      <c r="B568" t="n">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="569">
+      <c r="A569" s="3" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B569" t="n">
+        <v>1540300</v>
+      </c>
+    </row>
+    <row r="570">
+      <c r="A570" s="3" t="n">
+        <v>42856</v>
+      </c>
+      <c r="B570" t="n">
+        <v>1548600</v>
+      </c>
+    </row>
+    <row r="571">
+      <c r="A571" s="3" t="n">
+        <v>42887</v>
+      </c>
+      <c r="B571" t="n">
+        <v>1556200</v>
+      </c>
+    </row>
+    <row r="572">
+      <c r="A572" s="3" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B572" t="n">
+        <v>1562100</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="3" t="n">
+        <v>42948</v>
+      </c>
+      <c r="B573" t="n">
+        <v>1566000</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="3" t="n">
+        <v>42979</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1578800</v>
+      </c>
+    </row>
+    <row r="575">
+      <c r="A575" s="3" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B575" t="n">
+        <v>1584200</v>
+      </c>
+    </row>
+    <row r="576">
+      <c r="A576" s="3" t="n">
+        <v>43040</v>
+      </c>
+      <c r="B576" t="n">
+        <v>1593300</v>
+      </c>
+    </row>
+    <row r="577">
+      <c r="A577" s="3" t="n">
+        <v>43070</v>
+      </c>
+      <c r="B577" t="n">
+        <v>1606700</v>
+      </c>
+    </row>
+    <row r="578">
+      <c r="A578" s="3" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B578" t="n">
+        <v>1610200</v>
+      </c>
+    </row>
+    <row r="579">
+      <c r="A579" s="3" t="n">
+        <v>43132</v>
+      </c>
+      <c r="B579" t="n">
+        <v>1616300</v>
+      </c>
+    </row>
+    <row r="580">
+      <c r="A580" s="3" t="n">
+        <v>43160</v>
+      </c>
+      <c r="B580" t="n">
+        <v>1633600</v>
+      </c>
+    </row>
+    <row r="581">
+      <c r="A581" s="3" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B581" t="n">
+        <v>1640900</v>
+      </c>
+    </row>
+    <row r="582">
+      <c r="A582" s="3" t="n">
+        <v>43221</v>
+      </c>
+      <c r="B582" t="n">
+        <v>1652300</v>
+      </c>
+    </row>
+    <row r="583">
+      <c r="A583" s="3" t="n">
+        <v>43252</v>
+      </c>
+      <c r="B583" t="n">
+        <v>1662300</v>
+      </c>
+    </row>
+    <row r="584">
+      <c r="A584" s="3" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B584" t="n">
+        <v>1668500</v>
+      </c>
+    </row>
+    <row r="585">
+      <c r="A585" s="3" t="n">
+        <v>43313</v>
+      </c>
+      <c r="B585" t="n">
+        <v>1673300</v>
+      </c>
+    </row>
+    <row r="586">
+      <c r="A586" s="3" t="n">
+        <v>43344</v>
+      </c>
+      <c r="B586" t="n">
+        <v>1686000</v>
+      </c>
+    </row>
+    <row r="587">
+      <c r="A587" s="3" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B587" t="n">
+        <v>1690800</v>
+      </c>
+    </row>
+    <row r="588">
+      <c r="A588" s="3" t="n">
+        <v>43405</v>
+      </c>
+      <c r="B588" t="n">
+        <v>1701000</v>
+      </c>
+    </row>
+    <row r="589">
+      <c r="A589" s="3" t="n">
+        <v>43435</v>
+      </c>
+      <c r="B589" t="n">
+        <v>1709400</v>
+      </c>
+    </row>
+    <row r="590">
+      <c r="A590" s="3" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B590" t="n">
+        <v>1707800</v>
+      </c>
+    </row>
+    <row r="591">
+      <c r="A591" s="3" t="n">
+        <v>43497</v>
+      </c>
+      <c r="B591" t="n">
+        <v>1708200</v>
+      </c>
+    </row>
+    <row r="592">
+      <c r="A592" s="3" t="n">
+        <v>43525</v>
+      </c>
+      <c r="B592" t="n">
+        <v>1720200</v>
+      </c>
+    </row>
+    <row r="593">
+      <c r="A593" s="3" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B593" t="n">
+        <v>1727200</v>
+      </c>
+    </row>
+    <row r="594">
+      <c r="A594" s="3" t="n">
+        <v>43586</v>
+      </c>
+      <c r="B594" t="n">
+        <v>1733200</v>
+      </c>
+    </row>
+    <row r="595">
+      <c r="A595" s="3" t="n">
+        <v>43617</v>
+      </c>
+      <c r="B595" t="n">
+        <v>1739000</v>
+      </c>
+    </row>
+    <row r="596">
+      <c r="A596" s="3" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B596" t="n">
+        <v>1746800</v>
+      </c>
+    </row>
+    <row r="597">
+      <c r="A597" s="3" t="n">
+        <v>43678</v>
+      </c>
+      <c r="B597" t="n">
+        <v>1750500</v>
+      </c>
+    </row>
+    <row r="598">
+      <c r="A598" s="3" t="n">
+        <v>43709</v>
+      </c>
+      <c r="B598" t="n">
+        <v>1762900</v>
+      </c>
+    </row>
+    <row r="599">
+      <c r="A599" s="3" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B599" t="n">
+        <v>1771300</v>
+      </c>
+    </row>
+    <row r="600">
+      <c r="A600" s="3" t="n">
+        <v>43770</v>
+      </c>
+      <c r="B600" t="n">
+        <v>1786200</v>
+      </c>
+    </row>
+    <row r="601">
+      <c r="A601" s="3" t="n">
+        <v>43800</v>
+      </c>
+      <c r="B601" t="n">
+        <v>1796400</v>
+      </c>
+    </row>
+    <row r="602">
+      <c r="A602" s="3" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B602" t="n">
+        <v>1797200</v>
+      </c>
+    </row>
+    <row r="603">
+      <c r="A603" s="3" t="n">
+        <v>43862</v>
+      </c>
+      <c r="B603" t="n">
+        <v>1797500</v>
+      </c>
+    </row>
+    <row r="604">
+      <c r="A604" s="3" t="n">
+        <v>43891</v>
+      </c>
+      <c r="B604" t="n">
+        <v>1838000</v>
+      </c>
+    </row>
+    <row r="605">
+      <c r="A605" s="3" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B605" t="n">
+        <v>1891300</v>
+      </c>
+    </row>
+    <row r="606">
+      <c r="A606" s="3" t="n">
+        <v>43952</v>
+      </c>
+      <c r="B606" t="n">
+        <v>1931800</v>
+      </c>
+    </row>
+    <row r="607">
+      <c r="A607" s="3" t="n">
+        <v>43983</v>
+      </c>
+      <c r="B607" t="n">
+        <v>1958300</v>
+      </c>
+    </row>
+    <row r="608">
+      <c r="A608" s="3" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B608" t="n">
+        <v>1981700</v>
+      </c>
+    </row>
+    <row r="609">
+      <c r="A609" s="3" t="n">
+        <v>44044</v>
+      </c>
+      <c r="B609" t="n">
+        <v>2007600</v>
+      </c>
+    </row>
+    <row r="610">
+      <c r="A610" s="3" t="n">
+        <v>44075</v>
+      </c>
+      <c r="B610" t="n">
+        <v>2027500</v>
+      </c>
+    </row>
+    <row r="611">
+      <c r="A611" s="3" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B611" t="n">
+        <v>2040500</v>
+      </c>
+    </row>
+    <row r="612">
+      <c r="A612" s="3" t="n">
+        <v>44136</v>
+      </c>
+      <c r="B612" t="n">
+        <v>2058300</v>
+      </c>
+    </row>
+    <row r="613">
+      <c r="A613" s="3" t="n">
+        <v>44166</v>
+      </c>
+      <c r="B613" t="n">
+        <v>2071600</v>
+      </c>
+    </row>
+    <row r="614">
+      <c r="A614" s="3" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B614" t="n">
+        <v>2094200</v>
+      </c>
+    </row>
+    <row r="615">
+      <c r="A615" s="3" t="n">
+        <v>44228</v>
+      </c>
+      <c r="B615" t="n">
+        <v>2100900</v>
+      </c>
+    </row>
+    <row r="616">
+      <c r="A616" s="3" t="n">
+        <v>44256</v>
+      </c>
+      <c r="B616" t="n">
+        <v>2117800</v>
+      </c>
+    </row>
+    <row r="617">
+      <c r="A617" s="3" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B617" t="n">
+        <v>2154800</v>
+      </c>
+    </row>
+    <row r="618">
+      <c r="A618" s="3" t="n">
+        <v>44317</v>
+      </c>
+      <c r="B618" t="n">
+        <v>2169500</v>
+      </c>
+    </row>
+    <row r="619">
+      <c r="A619" s="3" t="n">
+        <v>44348</v>
+      </c>
+      <c r="B619" t="n">
+        <v>2179000</v>
+      </c>
+    </row>
+    <row r="620">
+      <c r="A620" s="3" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B620" t="n">
+        <v>2186300</v>
+      </c>
+    </row>
+    <row r="621">
+      <c r="A621" s="3" t="n">
+        <v>44409</v>
+      </c>
+      <c r="B621" t="n">
+        <v>2188600</v>
+      </c>
+    </row>
+    <row r="622">
+      <c r="A622" s="3" t="n">
+        <v>44440</v>
+      </c>
+      <c r="B622" t="n">
+        <v>2195600</v>
+      </c>
+    </row>
+    <row r="623">
+      <c r="A623" s="3" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B623" t="n">
+        <v>2202800</v>
+      </c>
+    </row>
+    <row r="624">
+      <c r="A624" s="3" t="n">
+        <v>44501</v>
+      </c>
+      <c r="B624" t="n">
+        <v>2214100</v>
+      </c>
+    </row>
+    <row r="625">
+      <c r="A625" s="3" t="n">
+        <v>44531</v>
+      </c>
+      <c r="B625" t="n">
+        <v>2225100</v>
+      </c>
+    </row>
+    <row r="626">
+      <c r="A626" s="3" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B626" t="n">
+        <v>2232700</v>
+      </c>
+    </row>
+    <row r="627">
+      <c r="A627" s="3" t="n">
+        <v>44593</v>
+      </c>
+      <c r="B627" t="n">
+        <v>2235400</v>
+      </c>
+    </row>
+    <row r="628">
+      <c r="A628" s="3" t="n">
+        <v>44621</v>
+      </c>
+      <c r="B628" t="n">
+        <v>2259700</v>
+      </c>
+    </row>
+    <row r="629">
+      <c r="A629" s="3" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B629" t="n">
+        <v>2269700</v>
+      </c>
+    </row>
+    <row r="630">
+      <c r="A630" s="3" t="n">
+        <v>44682</v>
+      </c>
+      <c r="B630" t="n">
+        <v>2273600</v>
+      </c>
+    </row>
+    <row r="631">
+      <c r="A631" s="3" t="n">
+        <v>44713</v>
+      </c>
+      <c r="B631" t="n">
+        <v>2278000</v>
+      </c>
+    </row>
+    <row r="632">
+      <c r="A632" s="3" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B632" t="n">
+        <v>2278500</v>
+      </c>
+    </row>
+    <row r="633">
+      <c r="A633" s="3" t="n">
+        <v>44774</v>
+      </c>
+      <c r="B633" t="n">
+        <v>2276300</v>
+      </c>
+    </row>
+    <row r="634">
+      <c r="A634" s="3" t="n">
+        <v>44805</v>
+      </c>
+      <c r="B634" t="n">
+        <v>2279400</v>
+      </c>
+    </row>
+    <row r="635">
+      <c r="A635" s="3" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B635" t="n">
+        <v>2283900</v>
+      </c>
+    </row>
+    <row r="636">
+      <c r="A636" s="3" t="n">
+        <v>44866</v>
+      </c>
+      <c r="B636" t="n">
+        <v>2292500</v>
+      </c>
+    </row>
+    <row r="637">
+      <c r="A637" s="3" t="n">
+        <v>44896</v>
+      </c>
+      <c r="B637" t="n">
+        <v>2298100</v>
+      </c>
+    </row>
+    <row r="638">
+      <c r="A638" s="3" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B638" t="n">
+        <v>2298500</v>
+      </c>
+    </row>
+    <row r="639">
+      <c r="A639" s="3" t="n">
+        <v>44958</v>
+      </c>
+      <c r="B639" t="n">
+        <v>2299300</v>
+      </c>
+    </row>
+    <row r="640">
+      <c r="A640" s="3" t="n">
+        <v>44986</v>
+      </c>
+      <c r="B640" t="n">
+        <v>2312600</v>
+      </c>
+    </row>
+    <row r="641">
+      <c r="A641" s="3" t="n">
+        <v>45017</v>
+      </c>
+      <c r="B641" t="n">
+        <v>2323200</v>
+      </c>
+    </row>
+    <row r="642">
+      <c r="A642" s="3" t="n">
         <v>45047</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B642" t="n">
         <v>2333600</v>
       </c>
     </row>
